--- a/training/results/ts/test_results.xlsx
+++ b/training/results/ts/test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY6"/>
+  <dimension ref="A1:DY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,1118 +1730,1565 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>kernel_svm</t>
+          <t>linear_regression</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6472015575193338</v>
+        <v>0.7220622475821603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2431978665141009</v>
+        <v>0.1273478037018501</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6548661319319817</v>
+        <v>0.7380103950110589</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2427581207786559</v>
+        <v>0.1619810636229472</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4500340273055815</v>
+        <v>0.4903401538453671</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1371587907927402</v>
+        <v>0.06999156244336149</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4410043839614242</v>
+        <v>0.4845586822949413</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1598543223661583</v>
+        <v>0.1250607000457292</v>
       </c>
       <c r="J4" t="n">
-        <v>0.48778115595554</v>
+        <v>0.5708972081168004</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4348528584448407</v>
+        <v>0.2502725121221832</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9760373909271127</v>
+        <v>0.9684595338417069</v>
       </c>
       <c r="M4" t="n">
-        <v>0.014818866677667</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>0.01354492568519171</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4749189307239962</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.08522464798679437</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8910953920899094</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03401590185159432</v>
+      </c>
       <c r="R4" t="n">
-        <v>0.6852317447542777</v>
+        <v>0.7220622475821603</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2309467427821711</v>
+        <v>0.1273478037018501</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6971017949485436</v>
+        <v>0.7380103950110589</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2383599103707261</v>
+        <v>0.1619810636229472</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3511437968757748</v>
+        <v>0.4903401538453671</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1425708922768399</v>
+        <v>0.06999156244336149</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3638673547192565</v>
+        <v>0.4845586822949413</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1706515101440099</v>
+        <v>0.1250607000457292</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5427663593924219</v>
+        <v>0.5708972081168004</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4338698155141261</v>
+        <v>0.2502725121221832</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9623094845132868</v>
+        <v>0.9684595338417069</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01689331906492125</v>
+        <v>0.01354492568519171</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7048256480326359</v>
+        <v>0.4749189307239962</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08003334151603204</v>
+        <v>0.08522464798679437</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9620114424838475</v>
+        <v>0.8910953920899094</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0423315643828885</v>
+        <v>0.03401590185159432</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6892932483596675</v>
+        <v>0.7220622475821603</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.2477971415112774</v>
+        <v>0.1273478037018501</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.7023507379577357</v>
+        <v>0.7380103950110589</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.2504229705405265</v>
+        <v>0.1619810636229472</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3570289779993223</v>
+        <v>0.4903401538453671</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.1656259074967108</v>
+        <v>0.06999156244336149</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.3702716117733451</v>
+        <v>0.4845586822949413</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1845314761886355</v>
+        <v>0.1250607000457292</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5560082232841175</v>
+        <v>0.5708972081168004</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.4754864295321152</v>
+        <v>0.2502725121221832</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.9621997365789988</v>
+        <v>0.9684595338417069</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.01818180885572531</v>
+        <v>0.01354492568519171</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.7015919388938937</v>
+        <v>0.4749189307239962</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.09164604594043631</v>
+        <v>0.08522464798679437</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.9605907397298115</v>
+        <v>0.8910953920899094</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.04591516902549871</v>
+        <v>0.03401590185159432</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.7071365394012689</v>
+        <v>0.7220622475821603</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.2151511775923807</v>
+        <v>0.1273478037018501</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.7034934202916576</v>
+        <v>0.7380103950110589</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.2245067653644199</v>
+        <v>0.1619810636229472</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.3775179416201265</v>
+        <v>0.4903401538453671</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.1288762110703684</v>
+        <v>0.06999156244336149</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.3788101512395509</v>
+        <v>0.4845586822949413</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.1610065590493441</v>
+        <v>0.1250607000457292</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.5453062800880496</v>
+        <v>0.5708972081168004</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.4132790257132349</v>
+        <v>0.2502725121221832</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9594305605690798</v>
+        <v>0.9684595338417069</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01804586240213205</v>
+        <v>0.01354492568519171</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6767050362525074</v>
+        <v>0.4749189307239962</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.06848645420895048</v>
+        <v>0.08522464798679437</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.9638539569375109</v>
+        <v>0.8910953920899094</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04205536218067347</v>
+        <v>0.03401590185159432</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.6733430714176332</v>
+        <v>0.7220622475821603</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2116868943214711</v>
+        <v>0.1273478037018501</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.671657781329376</v>
+        <v>0.7380103950110589</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.214635894788084</v>
+        <v>0.1619810636229472</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.3495693937037875</v>
+        <v>0.4903401538453671</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.1350129339233719</v>
+        <v>0.06999156244336149</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.3507805970413412</v>
+        <v>0.4845586822949413</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1530965449617929</v>
+        <v>0.1250607000457292</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.4971927425517814</v>
+        <v>0.5708972081168004</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.3622995963621422</v>
+        <v>0.2502725121221832</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9622824002676873</v>
+        <v>0.9684595338417069</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01654386586281064</v>
+        <v>0.01354492568519171</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.6979383555011195</v>
+        <v>0.4749189307239962</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.08783285506627611</v>
+        <v>0.08522464798679437</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9689576597269384</v>
+        <v>0.8910953920899094</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.03315982245000042</v>
+        <v>0.03401590185159432</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.6892932483596675</v>
+        <v>0.7220622475821603</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.2477971415112774</v>
+        <v>0.1273478037018501</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7023507379577357</v>
+        <v>0.7380103950110589</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.2504229705405265</v>
+        <v>0.1619810636229472</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.3570289779993223</v>
+        <v>0.4903401538453671</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.1656259074967108</v>
+        <v>0.06999156244336149</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.3702716117733451</v>
+        <v>0.4845586822949413</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.1845314761886355</v>
+        <v>0.1250607000457292</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.5560082232841175</v>
+        <v>0.5708972081168004</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.4754864295321152</v>
+        <v>0.2502725121221832</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.9621997365789988</v>
+        <v>0.9684595338417069</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.01818180885572531</v>
+        <v>0.01354492568519171</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.7015919388938937</v>
+        <v>0.4749189307239962</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.09164604594043631</v>
+        <v>0.08522464798679437</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.9605907397298115</v>
+        <v>0.8910953920899094</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.04591516902549871</v>
+        <v>0.03401590185159432</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.6842407149086843</v>
+        <v>0.7220622475821603</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.2358613247900361</v>
+        <v>0.1273478037018501</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6926672475611544</v>
+        <v>0.7380103950110589</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.2394948633168642</v>
+        <v>0.1619810636229472</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.3479678441777543</v>
+        <v>0.4903401538453671</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.1478563847282587</v>
+        <v>0.06999156244336149</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.3599735843178156</v>
+        <v>0.4845586822949413</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.1654645527990318</v>
+        <v>0.1250607000457292</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.5371457053991089</v>
+        <v>0.5708972081168004</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.4423972202750087</v>
+        <v>0.2502725121221832</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.9629345228195909</v>
+        <v>0.9684595338417069</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.01719485871787119</v>
+        <v>0.01354492568519171</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.7089201593907238</v>
+        <v>0.4749189307239962</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.07854628101694769</v>
+        <v>0.08522464798679437</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.9619096087880344</v>
+        <v>0.8910953920899094</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.04513760045329659</v>
+        <v>0.03401590185159432</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.6811391320447717</v>
+        <v>0.7220622475821603</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.2203467693273904</v>
+        <v>0.1273478037018501</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.6873768434356993</v>
+        <v>0.7380103950110589</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.2260238424276479</v>
+        <v>0.1619810636229472</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.3564872542152228</v>
+        <v>0.4903401538453671</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1420845153482614</v>
+        <v>0.06999156244336149</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.3635763218206387</v>
+        <v>0.4845586822949413</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.1643941273598958</v>
+        <v>0.1250607000457292</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.5235737022373841</v>
+        <v>0.5708972081168004</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.3931957082210237</v>
+        <v>0.2502725121221832</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.9619843147773687</v>
+        <v>0.9684595338417069</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.01727991377379216</v>
+        <v>0.01354492568519171</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.6940966715696426</v>
+        <v>0.4749189307239962</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.08689651166963856</v>
+        <v>0.08522464798679437</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.9664968677623645</v>
+        <v>0.8910953920899094</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.03758797926086543</v>
+        <v>0.03401590185159432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>random_forest</t>
+          <t>linear_regression_ridge</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5564241381457212</v>
+        <v>0.7148324365429448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2069317925851069</v>
+        <v>0.1380934507689673</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5429695297450373</v>
+        <v>0.7283346539233263</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2008792288947846</v>
+        <v>0.1765618234042962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3706516164231504</v>
+        <v>0.4828603978366413</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1319389974614193</v>
+        <v>0.07387684592205186</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3492435496141596</v>
+        <v>0.4757653250409627</v>
       </c>
       <c r="I5" t="n">
-        <v>0.119556192674522</v>
+        <v>0.1286652584731536</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3351683748329101</v>
+        <v>0.5616454455894613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2803925608614238</v>
+        <v>0.2751907393206223</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9830427769017589</v>
+        <v>0.9702612384432143</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01109309625198529</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+        <v>0.012425813481318</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4653396295709452</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.08083487579897117</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.8938054671805907</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.03378394204306947</v>
+      </c>
       <c r="R5" t="n">
-        <v>0.5921142764639534</v>
+        <v>0.7148324365429448</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2138395114532152</v>
+        <v>0.1380934507689673</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5938284750134593</v>
+        <v>0.7283346539233263</v>
       </c>
       <c r="U5" t="n">
-        <v>0.203393053661064</v>
+        <v>0.1765618234042962</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2854398807041712</v>
+        <v>0.4828603978366413</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1571583663009246</v>
+        <v>0.07387684592205186</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2842265064736695</v>
+        <v>0.4757653250409627</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1359188910976816</v>
+        <v>0.1286652584731536</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3940009920143832</v>
+        <v>0.5616454455894613</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3004171127348747</v>
+        <v>0.2751907393206223</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9705076136237991</v>
+        <v>0.9702612384432143</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01591735717831281</v>
+        <v>0.012425813481318</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.7498309609958367</v>
+        <v>0.4653396295709452</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1258686931416077</v>
+        <v>0.08083487579897117</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9742152317323721</v>
+        <v>0.8938054671805907</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02526747200347757</v>
+        <v>0.03378394204306947</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.5865832364998117</v>
+        <v>0.7148324365429448</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.2040094478057649</v>
+        <v>0.1380934507689673</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.5816309479260098</v>
+        <v>0.7283346539233263</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1960290584902465</v>
+        <v>0.1765618234042962</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2798846511371163</v>
+        <v>0.4828603978366413</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.137698692135765</v>
+        <v>0.07387684592205186</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.2752663421667345</v>
+        <v>0.4757653250409627</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1271052663425305</v>
+        <v>0.1286652584731536</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.3767219513578812</v>
+        <v>0.5616454455894613</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.2846421231169254</v>
+        <v>0.2751907393206223</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.9685651680723388</v>
+        <v>0.9702612384432143</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.01677588013121919</v>
+        <v>0.012425813481318</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.7531819178759694</v>
+        <v>0.4653396295709452</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1043610712937593</v>
+        <v>0.08083487579897117</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.9760879394325568</v>
+        <v>0.8938054671805907</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.02466189819308726</v>
+        <v>0.03378394204306947</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.5951393423030518</v>
+        <v>0.7148324365429448</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.185256053387016</v>
+        <v>0.1380934507689673</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.5803643437593301</v>
+        <v>0.7283346539233263</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.1788720000128164</v>
+        <v>0.1765618234042962</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.2897790039138216</v>
+        <v>0.4828603978366413</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.1389409811617291</v>
+        <v>0.07387684592205186</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.2705345448333481</v>
+        <v>0.4757653250409627</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.11249458986919</v>
+        <v>0.1286652584731536</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.3688179638957828</v>
+        <v>0.5616454455894613</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.2512832227879772</v>
+        <v>0.2751907393206223</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.9683370878902486</v>
+        <v>0.9702612384432143</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.01504714027503541</v>
+        <v>0.012425813481318</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.743106578384899</v>
+        <v>0.4653396295709452</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.1124521782434559</v>
+        <v>0.08083487579897117</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.9759851065182745</v>
+        <v>0.8938054671805907</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.02427108564818687</v>
+        <v>0.03378394204306947</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.5868302163850158</v>
+        <v>0.7148324365429448</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.1780126941939122</v>
+        <v>0.1380934507689673</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.5643131288095483</v>
+        <v>0.7283346539233263</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.1736029043983332</v>
+        <v>0.1765618234042962</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.2850223015834276</v>
+        <v>0.4828603978366413</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.1280779987036316</v>
+        <v>0.07387684592205186</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.2614798787455111</v>
+        <v>0.4757653250409627</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1154945268539516</v>
+        <v>0.1286652584731536</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.3485872757623587</v>
+        <v>0.5616454455894613</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.2368712454559664</v>
+        <v>0.2751907393206223</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.966846877735931</v>
+        <v>0.9702612384432143</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.01733924139007779</v>
+        <v>0.012425813481318</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.7445075778836239</v>
+        <v>0.4653396295709452</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.1014866951090953</v>
+        <v>0.08083487579897117</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.9788486533884193</v>
+        <v>0.8938054671805907</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.02226064774486309</v>
+        <v>0.03378394204306947</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.5865832364998117</v>
+        <v>0.7148324365429448</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.2040094478057649</v>
+        <v>0.1380934507689673</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.5816309479260098</v>
+        <v>0.7283346539233263</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.1960290584902465</v>
+        <v>0.1765618234042962</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.2798846511371163</v>
+        <v>0.4828603978366413</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.137698692135765</v>
+        <v>0.07387684592205186</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.2752663421667345</v>
+        <v>0.4757653250409627</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.1271052663425305</v>
+        <v>0.1286652584731536</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.3767219513578812</v>
+        <v>0.5616454455894613</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.2846421231169254</v>
+        <v>0.2751907393206223</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.9685651680723388</v>
+        <v>0.9702612384432143</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.01677588013121919</v>
+        <v>0.012425813481318</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.7531819178759694</v>
+        <v>0.4653396295709452</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.1043610712937593</v>
+        <v>0.08083487579897117</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.9760879394325568</v>
+        <v>0.8938054671805907</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.02466189819308726</v>
+        <v>0.03378394204306947</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.6040467021979007</v>
+        <v>0.7148324365429448</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.205439808275014</v>
+        <v>0.1380934507689673</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.5973119337990017</v>
+        <v>0.7283346539233263</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.1981241159726816</v>
+        <v>0.1765618234042962</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.2927940516346912</v>
+        <v>0.4828603978366413</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.1398952434812679</v>
+        <v>0.07387684592205186</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.2876924894367311</v>
+        <v>0.4757653250409627</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.1336510902499876</v>
+        <v>0.1286652584731536</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.3960347115886596</v>
+        <v>0.5616454455894613</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.3010689432415947</v>
+        <v>0.2751907393206223</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.9676756712573619</v>
+        <v>0.9702612384432143</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.01730558181954694</v>
+        <v>0.012425813481318</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.7437205510640859</v>
+        <v>0.4653396295709452</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.1031759444048137</v>
+        <v>0.08083487579897117</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.9734262643742005</v>
+        <v>0.8938054671805907</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.02667744958769462</v>
+        <v>0.03378394204306947</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.5848929772046051</v>
+        <v>0.7148324365429448</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.1792778904808194</v>
+        <v>0.1380934507689673</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.5630791312473918</v>
+        <v>0.7283346539233263</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.1765542846989742</v>
+        <v>0.1765618234042962</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.281973666994518</v>
+        <v>0.4828603978366413</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.1262444785294418</v>
+        <v>0.07387684592205186</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.2602860060736986</v>
+        <v>0.4757653250409627</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.1180812034043322</v>
+        <v>0.1286652584731536</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.3482295234918839</v>
+        <v>0.5616454455894613</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.2432805762999762</v>
+        <v>0.2751907393206223</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.967572264069671</v>
+        <v>0.9702612384432143</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.01609636777578146</v>
+        <v>0.012425813481318</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.748171597087918</v>
+        <v>0.4653396295709452</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.09791004449112577</v>
+        <v>0.08083487579897117</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.9782332687730347</v>
+        <v>0.8938054671805907</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.02372053487456847</v>
+        <v>0.03378394204306947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>or_cnn</t>
+          <t>linear_regression_lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.280685226732498</v>
+        <v>0.7139630917814213</v>
       </c>
       <c r="C6" t="n">
-        <v>1.480110934629189</v>
+        <v>0.1494389848506838</v>
       </c>
       <c r="D6" t="n">
-        <v>1.415624266720606</v>
+        <v>0.7236670569505984</v>
       </c>
       <c r="E6" t="n">
-        <v>2.000671680680073</v>
+        <v>0.1820691782982087</v>
       </c>
       <c r="F6" t="n">
-        <v>0.859368288384542</v>
+        <v>0.4761303490467966</v>
       </c>
       <c r="G6" t="n">
-        <v>1.228251717483258</v>
+        <v>0.07544066453732129</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9848765468561573</v>
+        <v>0.466878219745622</v>
       </c>
       <c r="I6" t="n">
-        <v>1.69457253433306</v>
+        <v>0.1263879649586753</v>
       </c>
       <c r="J6" t="n">
-        <v>6.006679238403482</v>
+        <v>0.5568431950017254</v>
       </c>
       <c r="K6" t="n">
-        <v>18.18853468811858</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+        <v>0.289369590207731</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9703718563565291</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01407135689502641</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4727291397563277</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.08833359909761293</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8983883621861586</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.03065202319955445</v>
+      </c>
       <c r="R6" t="n">
-        <v>1.278548118963171</v>
+        <v>0.7139630917814213</v>
       </c>
       <c r="S6" t="n">
-        <v>1.480759570465485</v>
+        <v>0.1494389848506838</v>
       </c>
       <c r="T6" t="n">
-        <v>1.40856831365213</v>
+        <v>0.7236670569505984</v>
       </c>
       <c r="U6" t="n">
-        <v>2.00295397088293</v>
+        <v>0.1820691782982087</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8582774627134088</v>
+        <v>0.4761303490467966</v>
       </c>
       <c r="W6" t="n">
-        <v>1.228496228761878</v>
+        <v>0.07544066453732129</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9830052297674489</v>
+        <v>0.466878219745622</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.695171848796419</v>
+        <v>0.1263879649586753</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.995889303700503</v>
+        <v>0.5568431950017254</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.1917519588149</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+        <v>0.289369590207731</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.9703718563565291</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01407135689502641</v>
+      </c>
       <c r="AD6" t="n">
-        <v>0.5444333859714067</v>
+        <v>0.4727291397563277</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1642744706280782</v>
+        <v>0.08833359909761293</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.869345950791245</v>
+        <v>0.8983883621861586</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.2082749498712003</v>
+        <v>0.03065202319955445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.278548118963171</v>
+        <v>0.7139630917814213</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.480759570465485</v>
+        <v>0.1494389848506838</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.40856831365213</v>
+        <v>0.7236670569505984</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.00295397088293</v>
+        <v>0.1820691782982087</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.8582774627134088</v>
+        <v>0.4761303490467966</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.228496228761878</v>
+        <v>0.07544066453732129</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9830052297674489</v>
+        <v>0.466878219745622</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.695171848796419</v>
+        <v>0.1263879649586753</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.995889303700503</v>
+        <v>0.5568431950017254</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18.1917519588149</v>
-      </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
+        <v>0.289369590207731</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9703718563565291</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01407135689502641</v>
+      </c>
       <c r="AT6" t="n">
-        <v>0.5444333859714067</v>
+        <v>0.4727291397563277</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1642744706280782</v>
+        <v>0.08833359909761293</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.869345950791245</v>
+        <v>0.8983883621861586</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.2082749498712003</v>
+        <v>0.03065202319955445</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.278548118963171</v>
+        <v>0.7139630917814213</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.480759570465485</v>
+        <v>0.1494389848506838</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.40856831365213</v>
+        <v>0.7236670569505984</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.00295397088293</v>
+        <v>0.1820691782982087</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.8582774627134088</v>
+        <v>0.4761303490467966</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.228496228761878</v>
+        <v>0.07544066453732129</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.9830052297674489</v>
+        <v>0.466878219745622</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.695171848796419</v>
+        <v>0.1263879649586753</v>
       </c>
       <c r="BF6" t="n">
-        <v>5.995889303700503</v>
+        <v>0.5568431950017254</v>
       </c>
       <c r="BG6" t="n">
-        <v>18.1917519588149</v>
-      </c>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
+        <v>0.289369590207731</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.9703718563565291</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.01407135689502641</v>
+      </c>
       <c r="BJ6" t="n">
-        <v>0.5444333859714067</v>
+        <v>0.4727291397563277</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.1642744706280782</v>
+        <v>0.08833359909761293</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.869345950791245</v>
+        <v>0.8983883621861586</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.2082749498712003</v>
+        <v>0.03065202319955445</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.278548118963171</v>
+        <v>0.7139630917814213</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.480759570465485</v>
+        <v>0.1494389848506838</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.40856831365213</v>
+        <v>0.7236670569505984</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.00295397088293</v>
+        <v>0.1820691782982087</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.8582774627134088</v>
+        <v>0.4761303490467966</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.228496228761878</v>
+        <v>0.07544066453732129</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.9830052297674489</v>
+        <v>0.466878219745622</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.695171848796419</v>
+        <v>0.1263879649586753</v>
       </c>
       <c r="BV6" t="n">
-        <v>5.995889303700503</v>
+        <v>0.5568431950017254</v>
       </c>
       <c r="BW6" t="n">
-        <v>18.1917519588149</v>
-      </c>
-      <c r="BX6" t="inlineStr"/>
-      <c r="BY6" t="inlineStr"/>
+        <v>0.289369590207731</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.9703718563565291</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.01407135689502641</v>
+      </c>
       <c r="BZ6" t="n">
-        <v>0.5444333859714067</v>
+        <v>0.4727291397563277</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.1642744706280782</v>
+        <v>0.08833359909761293</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.869345950791245</v>
+        <v>0.8983883621861586</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.2082749498712003</v>
+        <v>0.03065202319955445</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.278548118963171</v>
+        <v>0.7139630917814213</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.480759570465485</v>
+        <v>0.1494389848506838</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.40856831365213</v>
+        <v>0.7236670569505984</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.00295397088293</v>
+        <v>0.1820691782982087</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.8582774627134088</v>
+        <v>0.4761303490467966</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.228496228761878</v>
+        <v>0.07544066453732129</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.9830052297674489</v>
+        <v>0.466878219745622</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.695171848796419</v>
+        <v>0.1263879649586753</v>
       </c>
       <c r="CL6" t="n">
-        <v>5.995889303700503</v>
+        <v>0.5568431950017254</v>
       </c>
       <c r="CM6" t="n">
-        <v>18.1917519588149</v>
-      </c>
-      <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
+        <v>0.289369590207731</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.9703718563565291</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.01407135689502641</v>
+      </c>
       <c r="CP6" t="n">
-        <v>0.5444333859714067</v>
+        <v>0.4727291397563277</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1642744706280782</v>
+        <v>0.08833359909761293</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.869345950791245</v>
+        <v>0.8983883621861586</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.2082749498712003</v>
+        <v>0.03065202319955445</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.278548118963171</v>
+        <v>0.7139630917814213</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.480759570465485</v>
+        <v>0.1494389848506838</v>
       </c>
       <c r="CV6" t="n">
-        <v>1.40856831365213</v>
+        <v>0.7236670569505984</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.00295397088293</v>
+        <v>0.1820691782982087</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.8582774627134088</v>
+        <v>0.4761303490467966</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.228496228761878</v>
+        <v>0.07544066453732129</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.9830052297674489</v>
+        <v>0.466878219745622</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.695171848796419</v>
+        <v>0.1263879649586753</v>
       </c>
       <c r="DB6" t="n">
-        <v>5.995889303700503</v>
+        <v>0.5568431950017254</v>
       </c>
       <c r="DC6" t="n">
-        <v>18.1917519588149</v>
-      </c>
-      <c r="DD6" t="inlineStr"/>
-      <c r="DE6" t="inlineStr"/>
+        <v>0.289369590207731</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.9703718563565291</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.01407135689502641</v>
+      </c>
       <c r="DF6" t="n">
-        <v>0.5444333859714067</v>
+        <v>0.4727291397563277</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.1642744706280782</v>
+        <v>0.08833359909761293</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.869345950791245</v>
+        <v>0.8983883621861586</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.2082749498712003</v>
+        <v>0.03065202319955445</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.278548118963171</v>
+        <v>0.7139630917814213</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.480759570465485</v>
+        <v>0.1494389848506838</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.40856831365213</v>
+        <v>0.7236670569505984</v>
       </c>
       <c r="DM6" t="n">
-        <v>2.00295397088293</v>
+        <v>0.1820691782982087</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.8582774627134088</v>
+        <v>0.4761303490467966</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.228496228761878</v>
+        <v>0.07544066453732129</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.9830052297674489</v>
+        <v>0.466878219745622</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.695171848796419</v>
+        <v>0.1263879649586753</v>
       </c>
       <c r="DR6" t="n">
-        <v>5.995889303700503</v>
+        <v>0.5568431950017254</v>
       </c>
       <c r="DS6" t="n">
-        <v>18.1917519588149</v>
-      </c>
-      <c r="DT6" t="inlineStr"/>
-      <c r="DU6" t="inlineStr"/>
+        <v>0.289369590207731</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0.9703718563565291</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0.01407135689502641</v>
+      </c>
       <c r="DV6" t="n">
-        <v>0.5444333859714067</v>
+        <v>0.4727291397563277</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.1642744706280782</v>
+        <v>0.08833359909761293</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.869345950791245</v>
+        <v>0.8983883621861586</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.2082749498712003</v>
+        <v>0.03065202319955445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>condor</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.096873615622138</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7753522627283341</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.094603562839705</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8413455481403387</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7080196869016581</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6065443421737498</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7117008891315693</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6802246740391663</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.906019291156942</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.837532746687981</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.938192257087799</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.03632859518761603</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5342380158798451</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1347004050913169</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8877615901869749</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1349263589468802</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.096873615622138</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.7753522627283341</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.094603562839705</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8413455481403387</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.7080196869016581</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.6065443421737498</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.7117008891315693</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.6802246740391663</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.906019291156942</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3.837532746687981</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.938192257087799</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.03632859518761603</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.5342380158798451</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.1347004050913169</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.8877615901869749</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.1349263589468802</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.096873615622138</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.7753522627283341</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.094603562839705</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.8413455481403387</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.7080196869016581</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.6065443421737498</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.7117008891315693</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.6802246740391663</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.906019291156942</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3.837532746687981</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.938192257087799</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.03632859518761603</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.5342380158798451</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.1347004050913169</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.8877615901869749</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.1349263589468802</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1.096873615622138</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.7753522627283341</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.094603562839705</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.8413455481403387</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.7080196869016581</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.6065443421737498</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.7117008891315693</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.6802246740391663</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1.906019291156942</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>3.837532746687981</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.938192257087799</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.03632859518761603</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.5342380158798451</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.1347004050913169</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.8877615901869749</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.1349263589468802</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.096873615622138</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.7753522627283341</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.094603562839705</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.8413455481403387</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.7080196869016581</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.6065443421737498</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.7117008891315693</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.6802246740391663</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1.906019291156942</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>3.837532746687981</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.938192257087799</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.03632859518761603</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.5342380158798451</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.1347004050913169</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.8877615901869749</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.1349263589468802</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>1.096873615622138</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.7753522627283341</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>1.094603562839705</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.8413455481403387</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.7080196869016581</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.6065443421737498</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.7117008891315693</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.6802246740391663</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>1.906019291156942</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>3.837532746687981</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.938192257087799</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.03632859518761603</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.5342380158798451</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.1347004050913169</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.8877615901869749</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.1349263589468802</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>1.096873615622138</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.7753522627283341</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>1.094603562839705</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.8413455481403387</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.7080196869016581</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.6065443421737498</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.7117008891315693</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.6802246740391663</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>1.906019291156942</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>3.837532746687981</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.938192257087799</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.03632859518761603</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.5342380158798451</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.1347004050913169</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.8877615901869749</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.1349263589468802</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>1.096873615622138</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.7753522627283341</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1.094603562839705</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.8413455481403387</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.7080196869016581</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.6065443421737498</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.7117008891315693</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.6802246740391663</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>1.906019291156942</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>3.837532746687981</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.938192257087799</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0.03632859518761603</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0.5342380158798451</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0.1347004050913169</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.8877615901869749</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.1349263589468802</v>
       </c>
     </row>
   </sheetData>
